--- a/staff_list.xlsx
+++ b/staff_list.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/CAMs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/SC2002-CAMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{DAD0A763-F36A-4773-B526-842599E71A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A167B0F-E3DD-4D46-9929-B90B397DAC54}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{DAD0A763-F36A-4773-B526-842599E71A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{583D06C6-5429-4F3A-A5A0-9E1B616D56A9}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="staff" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -107,6 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -504,12 +505,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" style="4" width="22.0"/>
+    <col min="3" max="3" customWidth="true" width="25.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -518,15 +519,15 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -535,15 +536,15 @@
       <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
+      <c r="E2" t="s" s="0">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -552,15 +553,15 @@
       <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -569,15 +570,15 @@
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -586,15 +587,15 @@
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
+      <c r="E5" t="s" s="0">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -603,10 +604,10 @@
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>18</v>
       </c>
     </row>

--- a/staff_list.xlsx
+++ b/staff_list.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -540,7 +546,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">

--- a/staff_list.xlsx
+++ b/staff_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/SC2002-CAMS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/SC2002-CAMSV2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{DAD0A763-F36A-4773-B526-842599E71A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{583D06C6-5429-4F3A-A5A0-9E1B616D56A9}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{DAD0A763-F36A-4773-B526-842599E71A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F320766A-18C4-493C-927A-4B63D413499B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -100,13 +100,10 @@
     <t>ID</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>password123</t>
+  </si>
+  <si>
+    <t>@Password123</t>
   </si>
 </sst>
 </file>
@@ -506,7 +503,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,7 +543,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -563,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
